--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="999">
   <si>
     <t>anchor score</t>
   </si>
@@ -328,736 +328,736 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>sanitation</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>reporting</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>nyc</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>stays</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>bottles</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>sanitation</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>reporting</t>
-  </si>
-  <si>
-    <t>game</t>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>ladies</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>sir</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>nyc</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>stays</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>groceries</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>el</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>bottles</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>ladies</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>sir</t>
   </si>
   <si>
     <t>hoping</t>
@@ -3376,10 +3376,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3908,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4208,7 +4208,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4508,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K24">
         <v>0.9333333333333333</v>
@@ -4558,7 +4558,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K25">
         <v>0.9333333333333333</v>
@@ -4608,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K26">
         <v>0.9230769230769231</v>
@@ -4658,7 +4658,7 @@
         <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K27">
         <v>0.9230769230769231</v>
@@ -4708,7 +4708,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K28">
         <v>0.9166666666666666</v>
@@ -4758,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K29">
         <v>0.9090909090909091</v>
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K31">
         <v>0.9090909090909091</v>
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K33">
         <v>0.9</v>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K36">
         <v>0.889763779527559</v>
@@ -5308,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K40">
         <v>0.875</v>
@@ -5358,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K41">
         <v>0.875</v>
@@ -5408,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K42">
         <v>0.875</v>
@@ -5458,7 +5458,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K43">
         <v>0.875</v>
@@ -5558,7 +5558,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -5608,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K46">
         <v>0.8571428571428571</v>
@@ -5658,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K47">
         <v>0.8571428571428571</v>
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K48">
         <v>0.8571428571428571</v>
@@ -5758,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K49">
         <v>0.8571428571428571</v>
@@ -5908,7 +5908,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K52">
         <v>0.8518518518518519</v>
@@ -5958,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K53">
         <v>0.85</v>
@@ -6058,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K55">
         <v>0.8461538461538461</v>
@@ -6208,7 +6208,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6308,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6358,7 +6358,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K61">
         <v>0.8333333333333334</v>
@@ -6408,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K62">
         <v>0.8333333333333334</v>
@@ -6458,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K63">
         <v>0.8333333333333334</v>
@@ -6508,7 +6508,7 @@
         <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K64">
         <v>0.8333333333333334</v>
@@ -6608,7 +6608,7 @@
         <v>10</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K66">
         <v>0.8245614035087719</v>
@@ -6658,7 +6658,7 @@
         <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K67">
         <v>0.8214285714285714</v>
@@ -6708,7 +6708,7 @@
         <v>8</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K68">
         <v>0.8181818181818182</v>
@@ -6758,7 +6758,7 @@
         <v>8</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K69">
         <v>0.8141025641025641</v>
@@ -6808,7 +6808,7 @@
         <v>9</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K70">
         <v>0.8085106382978723</v>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K71">
         <v>0.8014184397163121</v>
@@ -6908,7 +6908,7 @@
         <v>6</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K72">
         <v>0.8</v>
@@ -7008,7 +7008,7 @@
         <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K74">
         <v>0.8</v>
@@ -7158,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K77">
         <v>0.8</v>
@@ -7308,7 +7308,7 @@
         <v>20</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K80">
         <v>0.7936507936507936</v>
@@ -7358,7 +7358,7 @@
         <v>17</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K81">
         <v>0.7826086956521739</v>
@@ -7508,7 +7508,7 @@
         <v>11</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K84">
         <v>0.7777777777777778</v>
@@ -7558,7 +7558,7 @@
         <v>12</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K85">
         <v>0.7727272727272727</v>
@@ -7608,28 +7608,28 @@
         <v>4</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K86">
-        <v>0.7665198237885462</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L86">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="M86">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="N86">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O86">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -7658,28 +7658,28 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>87</v>
+        <v>317</v>
       </c>
       <c r="K87">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L87">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="N87">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7708,28 +7708,28 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="K88">
         <v>0.75</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -7758,28 +7758,28 @@
         <v>4</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="K89">
         <v>0.75</v>
       </c>
       <c r="L89">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M89">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N89">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -7808,28 +7808,28 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="K90">
         <v>0.75</v>
       </c>
       <c r="L90">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M90">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -7858,28 +7858,28 @@
         <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="K91">
         <v>0.75</v>
       </c>
       <c r="L91">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N91">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -7908,16 +7908,16 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K92">
         <v>0.75</v>
       </c>
       <c r="L92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -7958,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K93">
         <v>0.75</v>
@@ -8008,16 +8008,16 @@
         <v>8</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K94">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M94">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -8058,7 +8058,7 @@
         <v>20</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K95">
         <v>0.7333333333333333</v>
@@ -8108,16 +8108,16 @@
         <v>25</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K96">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L96">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -8158,7 +8158,7 @@
         <v>13</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K97">
         <v>0.7272727272727273</v>
@@ -8237,25 +8237,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>84</v>
@@ -8308,7 +8308,7 @@
         <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K100">
         <v>0.7222222222222222</v>
@@ -8337,13 +8337,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>63</v>
@@ -8390,25 +8390,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K102">
         <v>0.7142857142857143</v>
@@ -8440,25 +8440,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F103">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K103">
         <v>0.7142857142857143</v>
@@ -8493,13 +8493,13 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F104">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
@@ -8543,13 +8543,13 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F105">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
@@ -8558,7 +8558,7 @@
         <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K105">
         <v>0.7</v>
@@ -8593,13 +8593,13 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F106">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -8608,7 +8608,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K106">
         <v>0.6875</v>
@@ -8643,13 +8643,13 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F107">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -8658,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K107">
         <v>0.6862745098039216</v>
@@ -8693,13 +8693,13 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F108">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -8708,7 +8708,7 @@
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K108">
         <v>0.6825396825396826</v>
@@ -8737,28 +8737,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="F109">
-        <v>0.06999999999999995</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K109">
         <v>0.6777777777777778</v>
@@ -8787,28 +8787,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1538461538461539</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E110">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="F110">
-        <v>0.6699999999999999</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -8837,28 +8837,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1481481481481481</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K111">
         <v>0.6666666666666666</v>
@@ -8887,13 +8887,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1470588235294118</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>57</v>
@@ -8937,13 +8937,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1466666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8955,10 +8955,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9008,7 +9008,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -9058,7 +9058,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -9093,16 +9093,16 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>6</v>
@@ -9140,22 +9140,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E117">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F117">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>66</v>
@@ -9190,25 +9190,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F118">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K118">
         <v>0.6666666666666666</v>
@@ -9243,22 +9243,22 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K119">
         <v>0.6666666666666666</v>
@@ -9287,13 +9287,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9305,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K120">
         <v>0.6666666666666666</v>
@@ -9337,13 +9337,13 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K121">
         <v>0.6666666666666666</v>
@@ -9393,22 +9393,22 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>7</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K122">
         <v>0.6608391608391608</v>
@@ -9437,28 +9437,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="E123">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F123">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K123">
         <v>0.6521739130434783</v>
@@ -9487,28 +9487,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1230769230769231</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="E124">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K124">
         <v>0.6521739130434783</v>
@@ -9537,28 +9537,28 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F125">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K125">
         <v>0.6515151515151515</v>
@@ -9587,49 +9587,49 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F126">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="K126">
-        <v>0.6481481481481481</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L126">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="M126">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="N126">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -9637,25 +9637,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>343</v>
@@ -9687,49 +9687,49 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F128">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>344</v>
+        <v>93</v>
       </c>
       <c r="K128">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -9737,28 +9737,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K129">
         <v>0.6363636363636364</v>
@@ -9790,46 +9790,46 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E130">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F130">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K130">
         <v>0.6363636363636364</v>
       </c>
       <c r="L130">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M130">
+        <v>15</v>
+      </c>
+      <c r="N130">
+        <v>0.93</v>
+      </c>
+      <c r="O130">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P130" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q130">
         <v>8</v>
-      </c>
-      <c r="N130">
-        <v>0.88</v>
-      </c>
-      <c r="O130">
-        <v>0.12</v>
-      </c>
-      <c r="P130" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q130">
-        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -9837,49 +9837,49 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>137</v>
+        <v>344</v>
       </c>
       <c r="K131">
         <v>0.6363636363636364</v>
       </c>
       <c r="L131">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M131">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -9887,28 +9887,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E132">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F132">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>345</v>
+        <v>92</v>
       </c>
       <c r="K132">
         <v>0.6363636363636364</v>
@@ -9917,16 +9917,16 @@
         <v>7</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -9940,34 +9940,34 @@
         <v>0.1</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K133">
         <v>0.6363636363636364</v>
       </c>
       <c r="L133">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M133">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N133">
         <v>0.88</v>
@@ -9979,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -9993,43 +9993,43 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>9</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K134">
-        <v>0.6363636363636364</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L134">
+        <v>12</v>
+      </c>
+      <c r="M134">
         <v>14</v>
       </c>
-      <c r="M134">
-        <v>16</v>
-      </c>
       <c r="N134">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O134">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -10037,28 +10037,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="K135">
         <v>0.631578947368421</v>
@@ -10067,13 +10067,13 @@
         <v>12</v>
       </c>
       <c r="M135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N135">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O135">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
@@ -10087,7 +10087,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10105,31 +10105,31 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="K136">
-        <v>0.631578947368421</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L136">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M136">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N136">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O136">
-        <v>0.07999999999999996</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P136" t="b">
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -10137,28 +10137,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="K137">
         <v>0.6296296296296297</v>
@@ -10167,13 +10167,13 @@
         <v>17</v>
       </c>
       <c r="M137">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N137">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O137">
-        <v>0.1899999999999999</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P137" t="b">
         <v>1</v>
@@ -10193,43 +10193,43 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>10</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="K138">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L138">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M138">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N138">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O138">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P138" t="b">
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -10240,46 +10240,46 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F139">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="K139">
         <v>0.625</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M139">
+        <v>10</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139">
         <v>6</v>
-      </c>
-      <c r="N139">
-        <v>0.83</v>
-      </c>
-      <c r="O139">
-        <v>0.17</v>
-      </c>
-      <c r="P139" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q139">
-        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -10293,13 +10293,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E140">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F140">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -10314,10 +10314,10 @@
         <v>0.625</v>
       </c>
       <c r="L140">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -10343,13 +10343,13 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -10361,13 +10361,13 @@
         <v>347</v>
       </c>
       <c r="K141">
-        <v>0.625</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -10393,13 +10393,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F142">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10408,7 +10408,7 @@
         <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K142">
         <v>0.6097560975609756</v>
@@ -10443,13 +10443,13 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F143">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -10493,16 +10493,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>10</v>
@@ -10537,25 +10537,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.09090909090909091</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D145">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="E145">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F145">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>349</v>
@@ -10587,7 +10587,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>53</v>
@@ -10637,28 +10637,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.08490566037735849</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F147">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K147">
         <v>0.5833333333333334</v>
@@ -10740,22 +10740,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="F149">
-        <v>0.08999999999999997</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>351</v>
@@ -10843,16 +10843,16 @@
         <v>2</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>22</v>
@@ -10887,7 +10887,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K152">
         <v>0.5747126436781609</v>
@@ -10937,13 +10937,13 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>354</v>
@@ -10987,25 +10987,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>83</v>
@@ -11037,25 +11037,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>355</v>
@@ -11093,13 +11093,13 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F156">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
@@ -11108,7 +11108,7 @@
         <v>13</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K156">
         <v>0.5681818181818182</v>
@@ -11137,25 +11137,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>356</v>
@@ -11187,25 +11187,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E158">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F158">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>357</v>
@@ -11240,10 +11240,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>358</v>
@@ -11293,13 +11293,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E160">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F160">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -11343,16 +11343,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>14</v>
@@ -11393,16 +11393,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>14</v>
@@ -11443,16 +11443,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>14</v>
@@ -11493,16 +11493,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>14</v>
@@ -11537,13 +11537,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -11555,10 +11555,10 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K165">
         <v>0.5384615384615384</v>
@@ -11587,28 +11587,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K166">
         <v>0.5380577427821522</v>
@@ -11643,22 +11643,22 @@
         <v>2</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>30</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K167">
         <v>0.5333333333333333</v>
@@ -11708,7 +11708,7 @@
         <v>15</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K168">
         <v>0.53125</v>
@@ -11740,22 +11740,22 @@
         <v>0.0625</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>3</v>
       </c>
       <c r="E169">
+        <v>0.67</v>
+      </c>
+      <c r="F169">
         <v>0.33</v>
       </c>
-      <c r="F169">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>363</v>
@@ -11787,25 +11787,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>364</v>
@@ -11837,13 +11837,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E171">
         <v>0.67</v>
@@ -11855,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>365</v>
@@ -11887,25 +11887,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>79</v>
@@ -11937,25 +11937,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.06</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>366</v>
@@ -11990,22 +11990,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>367</v>
@@ -12037,7 +12037,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -12055,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>368</v>
@@ -12087,25 +12087,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>369</v>
@@ -12187,13 +12187,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.05555555555555555</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>17</v>
+        <v>488</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>371</v>
@@ -12237,25 +12237,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>372</v>
@@ -12287,25 +12287,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.05426356589147287</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C180">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>488</v>
+        <v>18</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>373</v>
@@ -12343,16 +12343,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>18</v>
@@ -12393,13 +12393,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12437,25 +12437,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>376</v>
@@ -12487,25 +12487,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>377</v>
@@ -12537,28 +12537,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.05194805194805195</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K185">
         <v>0.48</v>
@@ -12587,28 +12587,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K186">
         <v>0.4761904761904762</v>
@@ -12637,25 +12637,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E187">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F187">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>378</v>
@@ -12693,22 +12693,22 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>19</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K188">
         <v>0.4705882352941176</v>
@@ -12743,16 +12743,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>19</v>
@@ -12793,22 +12793,22 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>19</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K190">
         <v>0.4634146341463415</v>
@@ -12837,25 +12837,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>380</v>
@@ -12887,25 +12887,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E192">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>381</v>
@@ -12937,25 +12937,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>382</v>
@@ -12987,25 +12987,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>383</v>
@@ -13037,28 +13037,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K195">
         <v>0.4482758620689655</v>
@@ -13087,25 +13087,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F196">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>384</v>
@@ -13137,25 +13137,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>385</v>
@@ -13187,25 +13187,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>386</v>
@@ -13240,22 +13240,22 @@
         <v>0.04</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E199">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F199">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>387</v>
@@ -13287,7 +13287,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13305,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>388</v>
@@ -13337,25 +13337,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F201">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>389</v>
@@ -13387,25 +13387,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>390</v>
@@ -13437,25 +13437,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>391</v>
@@ -13493,16 +13493,16 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>26</v>
@@ -13537,25 +13537,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>393</v>
@@ -13587,7 +13587,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>394</v>
@@ -13637,25 +13637,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.03636363636363636</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>395</v>
@@ -13690,22 +13690,22 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>396</v>
@@ -13743,16 +13743,16 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>28</v>
@@ -13790,22 +13790,22 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>398</v>
@@ -13837,25 +13837,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.03448275862068965</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>399</v>
@@ -13887,25 +13887,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03448275862068965</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F212">
-        <v>0.01000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>400</v>
@@ -13937,25 +13937,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>401</v>
@@ -13987,25 +13987,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>402</v>
@@ -14037,25 +14037,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>403</v>
@@ -14087,7 +14087,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>404</v>
@@ -14137,25 +14137,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>405</v>
@@ -14187,28 +14187,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02631578947368421</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K218">
         <v>0.4105263157894737</v>
@@ -14237,28 +14237,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K219">
         <v>0.4074074074074074</v>
@@ -14287,25 +14287,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02531645569620253</v>
+        <v>0.025</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>406</v>
@@ -14337,25 +14337,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>407</v>
@@ -14387,25 +14387,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>408</v>
@@ -14437,25 +14437,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02439024390243903</v>
+        <v>0.02258064516129032</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="E223">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F223">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>409</v>
@@ -14487,25 +14487,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>76</v>
@@ -14537,25 +14537,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02258064516129032</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C225">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>303</v>
+        <v>96</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>410</v>
@@ -14587,7 +14587,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>411</v>
@@ -14637,25 +14637,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02040816326530612</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>412</v>
@@ -14687,28 +14687,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K228">
         <v>0.3846153846153846</v>
@@ -14737,25 +14737,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0198019801980198</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="F229">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>413</v>
@@ -14787,25 +14787,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01851851851851852</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>414</v>
@@ -14837,28 +14837,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K231">
         <v>0.375</v>
@@ -14887,25 +14887,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>415</v>
@@ -14937,25 +14937,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01724137931034483</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E233">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F233">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>416</v>
@@ -14987,7 +14987,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01724137931034483</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>417</v>
@@ -15037,25 +15037,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01680672268907563</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F235">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>418</v>
@@ -15093,13 +15093,13 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
@@ -15137,25 +15137,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>420</v>
@@ -15187,25 +15187,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>421</v>
@@ -15237,25 +15237,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.015625</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>422</v>
@@ -15287,25 +15287,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.015625</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>423</v>
@@ -15337,25 +15337,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0136986301369863</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>424</v>
@@ -15387,28 +15387,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01342281879194631</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K242">
         <v>0.375</v>
@@ -15437,28 +15437,28 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01265822784810127</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K243">
         <v>0.3658536585365854</v>
@@ -15487,25 +15487,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01219512195121951</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>425</v>
@@ -15537,25 +15537,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0119047619047619</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>426</v>
@@ -15587,25 +15587,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01123595505617977</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="E246">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>427</v>
@@ -15637,25 +15637,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01111111111111111</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E247">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F247">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>428</v>
@@ -15687,25 +15687,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.009803921568627451</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>429</v>
@@ -15737,25 +15737,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.009615384615384616</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F249">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>430</v>
@@ -15787,25 +15787,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.009433962264150943</v>
+        <v>0.0078125</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>431</v>
@@ -15837,28 +15837,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.008695652173913044</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K251">
         <v>0.3364485981308411</v>
@@ -15887,25 +15887,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0078125</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E252">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F252">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>432</v>
@@ -15937,25 +15937,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.007246376811594203</v>
+        <v>0.005970149253731343</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E253">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F253">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>433</v>
@@ -15987,25 +15987,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.006993006993006993</v>
+        <v>0.005194805194805195</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E254">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>434</v>
@@ -16037,25 +16037,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.005970149253731343</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E255">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F255">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>435</v>
@@ -16087,28 +16087,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.005194805194805195</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D256">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F256">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>383</v>
+        <v>624</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K256">
         <v>0.3333333333333333</v>
@@ -16137,25 +16137,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.004854368932038835</v>
+        <v>0.004171011470281543</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E257">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F257">
-        <v>0.09999999999999998</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>205</v>
+        <v>955</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>436</v>
@@ -16187,25 +16187,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.004784688995215311</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E258">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F258">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>624</v>
+        <v>291</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>437</v>
@@ -16237,25 +16237,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.004171011470281543</v>
+        <v>0.003225806451612903</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E259">
-        <v>0.6899999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F259">
-        <v>0.3100000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>955</v>
+        <v>309</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>438</v>
@@ -16287,25 +16287,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.003424657534246575</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E260">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F260">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>291</v>
+        <v>858</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>74</v>
@@ -16337,25 +16337,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.003225806451612903</v>
+        <v>0.001952171791117618</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D261">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E261">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F261">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>309</v>
+        <v>2045</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>439</v>
@@ -16387,25 +16387,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.002325581395348837</v>
+        <v>0.001180637544273908</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E262">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F262">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>81</v>
@@ -16437,25 +16437,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.001952171791117618</v>
+        <v>0.0008764241893076249</v>
       </c>
       <c r="C263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="E263">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F263">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>2045</v>
+        <v>1140</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>440</v>
@@ -16487,25 +16487,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.001180637544273908</v>
+        <v>0.0003389830508474576</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="E264">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F264">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>846</v>
+        <v>2949</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>441</v>
@@ -16533,30 +16533,6 @@
       </c>
     </row>
     <row r="265" spans="1:17">
-      <c r="A265" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B265">
-        <v>0.0008764241893076249</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>21</v>
-      </c>
-      <c r="E265">
-        <v>0.95</v>
-      </c>
-      <c r="F265">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265">
-        <v>1140</v>
-      </c>
       <c r="J265" s="1" t="s">
         <v>442</v>
       </c>
@@ -16583,30 +16559,6 @@
       </c>
     </row>
     <row r="266" spans="1:17">
-      <c r="A266" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B266">
-        <v>0.0003389830508474576</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-      <c r="D266">
-        <v>158</v>
-      </c>
-      <c r="E266">
-        <v>0.99</v>
-      </c>
-      <c r="F266">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266">
-        <v>2949</v>
-      </c>
       <c r="J266" s="1" t="s">
         <v>443</v>
       </c>
@@ -16686,7 +16638,7 @@
     </row>
     <row r="269" spans="1:17">
       <c r="J269" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K269">
         <v>0.3333333333333333</v>
@@ -16868,7 +16820,7 @@
     </row>
     <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K276">
         <v>0.3181818181818182</v>
@@ -16998,7 +16950,7 @@
     </row>
     <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K281">
         <v>0.3043478260869565</v>
@@ -17284,7 +17236,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K292">
         <v>0.2857142857142857</v>
@@ -17336,7 +17288,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K294">
         <v>0.2857142857142857</v>
@@ -17700,7 +17652,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K308">
         <v>0.2777777777777778</v>
@@ -17752,7 +17704,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K310">
         <v>0.2727272727272727</v>
@@ -17856,7 +17808,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K314">
         <v>0.2692307692307692</v>
@@ -17882,7 +17834,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K315">
         <v>0.2692307692307692</v>
@@ -17934,7 +17886,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K317">
         <v>0.2631578947368421</v>
@@ -17986,7 +17938,7 @@
     </row>
     <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K319">
         <v>0.2627737226277372</v>
@@ -18038,7 +17990,7 @@
     </row>
     <row r="321" spans="10:17">
       <c r="J321" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K321">
         <v>0.2547770700636943</v>
@@ -18610,7 +18562,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K343">
         <v>0.2307692307692308</v>
@@ -18662,7 +18614,7 @@
     </row>
     <row r="345" spans="10:17">
       <c r="J345" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K345">
         <v>0.2307692307692308</v>
@@ -19000,7 +18952,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K358">
         <v>0.217948717948718</v>
@@ -19104,7 +19056,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K362">
         <v>0.2166666666666667</v>
@@ -19286,7 +19238,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K369">
         <v>0.2131147540983606</v>
@@ -19338,7 +19290,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K371">
         <v>0.2096774193548387</v>
@@ -19468,7 +19420,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K376">
         <v>0.2</v>
@@ -19858,7 +19810,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K391">
         <v>0.1971830985915493</v>
@@ -19884,7 +19836,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K392">
         <v>0.1962025316455696</v>
@@ -19936,7 +19888,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K394">
         <v>0.1894736842105263</v>
@@ -20222,7 +20174,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K405">
         <v>0.1818181818181818</v>
@@ -20326,7 +20278,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K409">
         <v>0.1818181818181818</v>
@@ -20638,7 +20590,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K421">
         <v>0.1707317073170732</v>
@@ -21548,7 +21500,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K456">
         <v>0.154320987654321</v>
@@ -21574,7 +21526,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K457">
         <v>0.1538461538461539</v>
@@ -21756,7 +21708,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K464">
         <v>0.1515151515151515</v>
@@ -21834,7 +21786,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K467">
         <v>0.148936170212766</v>
@@ -21912,7 +21864,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K470">
         <v>0.1440677966101695</v>
@@ -22276,7 +22228,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K484">
         <v>0.1428571428571428</v>
@@ -22822,7 +22774,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K505">
         <v>0.1333333333333333</v>
@@ -22952,7 +22904,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K510">
         <v>0.1272727272727273</v>
@@ -23524,7 +23476,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K532">
         <v>0.12</v>
@@ -23706,7 +23658,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K539">
         <v>0.1176470588235294</v>
@@ -23758,7 +23710,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K541">
         <v>0.1136363636363636</v>
@@ -23784,7 +23736,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K542">
         <v>0.1132075471698113</v>
@@ -24668,7 +24620,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K576">
         <v>0.1</v>
@@ -24720,7 +24672,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K578">
         <v>0.1</v>
@@ -24850,7 +24802,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K583">
         <v>0.1</v>
@@ -24980,7 +24932,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K588">
         <v>0.0975609756097561</v>
@@ -25084,7 +25036,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K592">
         <v>0.09523809523809523</v>
@@ -25240,7 +25192,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K598">
         <v>0.09090909090909091</v>
@@ -25344,7 +25296,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K602">
         <v>0.09090909090909091</v>
@@ -25552,7 +25504,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K610">
         <v>0.08695652173913043</v>
@@ -25890,7 +25842,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K623">
         <v>0.08333333333333333</v>
@@ -26410,7 +26362,7 @@
     </row>
     <row r="643" spans="10:17">
       <c r="J643" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K643">
         <v>0.0748792270531401</v>
@@ -26462,7 +26414,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K645">
         <v>0.07407407407407407</v>
@@ -27632,7 +27584,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K690">
         <v>0.06153846153846154</v>
@@ -27710,7 +27662,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K693">
         <v>0.06060606060606061</v>
@@ -27970,7 +27922,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K703">
         <v>0.05882352941176471</v>
@@ -28100,7 +28052,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K708">
         <v>0.05681818181818182</v>
@@ -28178,7 +28130,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K711">
         <v>0.05555555555555555</v>
@@ -28438,7 +28390,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K721">
         <v>0.05555555555555555</v>
@@ -28542,7 +28494,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K725">
         <v>0.05357142857142857</v>
@@ -28568,7 +28520,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K726">
         <v>0.05263157894736842</v>
@@ -28594,7 +28546,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K727">
         <v>0.05263157894736842</v>
@@ -28854,7 +28806,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K737">
         <v>0.05214723926380368</v>
@@ -28880,7 +28832,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K738">
         <v>0.05211726384364821</v>
@@ -28958,7 +28910,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K741">
         <v>0.05054732775273664</v>
@@ -29348,7 +29300,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K756">
         <v>0.04629629629629629</v>
@@ -29400,7 +29352,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K758">
         <v>0.04560622914349277</v>
@@ -29608,7 +29560,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K766">
         <v>0.04394576905095839</v>
@@ -29738,7 +29690,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K771">
         <v>0.04347826086956522</v>
@@ -29842,7 +29794,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K775">
         <v>0.04205607476635514</v>
@@ -29868,7 +29820,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K776">
         <v>0.04166666666666666</v>
@@ -30076,7 +30028,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K784">
         <v>0.04166666666666666</v>
@@ -30128,7 +30080,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K786">
         <v>0.04034582132564841</v>
@@ -30596,7 +30548,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K804">
         <v>0.03554868624420402</v>
@@ -30804,7 +30756,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K812">
         <v>0.03225806451612903</v>
@@ -30908,7 +30860,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K816">
         <v>0.03076923076923077</v>
@@ -31454,7 +31406,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K837">
         <v>0.025</v>
@@ -31662,7 +31614,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K845">
         <v>0.02409638554216868</v>
@@ -31922,7 +31874,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K855">
         <v>0.02197802197802198</v>
@@ -32260,7 +32212,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K868">
         <v>0.01724137931034483</v>
@@ -32286,7 +32238,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K869">
         <v>0.01724137931034483</v>
@@ -32390,7 +32342,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K873">
         <v>0.01612903225806452</v>
@@ -32598,7 +32550,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K881">
         <v>0.0136986301369863</v>
@@ -32936,7 +32888,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K894">
         <v>0.00933609958506224</v>
